--- a/individual_case_outputs/avey/165.xlsx
+++ b/individual_case_outputs/avey/165.xlsx
@@ -714,7 +714,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>hemochromatosis</t>
+          <t>iron deficiency anemia</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
